--- a/GATEWAY/A1#111DEDALUSXXX/Regione_Sardegna/PSWEB_SISaR_RAS/20.14/accreditamento-checklist_PSWEB_SISaR_RAS_V8.1.3.xlsx
+++ b/GATEWAY/A1#111DEDALUSXXX/Regione_Sardegna/PSWEB_SISaR_RAS/20.14/accreditamento-checklist_PSWEB_SISaR_RAS_V8.1.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ACCREDITAMENTO\it-fse-accreditamento\GATEWAY\A1#111DEDALUSXXX\Regione_Sardegna\PSWEB_SISaR_RAS\20.14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4257550F-6BC9-44B8-8DC9-5B8A6BA9849A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14A2272-8A4C-42E3-B067-EC1D5D8798FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="345" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="345" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -4584,42 +4584,6 @@
     <t>subject_application_version: 20.14</t>
   </si>
   <si>
-    <t>2023-11-03T11:09:23Z</t>
-  </si>
-  <si>
-    <t>e72ea2d810a0ab2c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.529091b0ed824e08be5d82e4b438bdf98c53c463382d335cbf038f185f5dd9ba.f96c7e53af^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-06T11:15:15Z</t>
-  </si>
-  <si>
-    <t>b44bdaf3d87df827</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.01a9b0eb701d0060c9ab4de918a073ccf3addc77c98b3659106e1cca6e5d3c16.00d0c54937^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-06T12:25:09</t>
-  </si>
-  <si>
-    <t>2c50b0c1476f6622</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.aca599be0ddfc357ca886fb981ad6c029d3e34c2e407dc06bc3474d506f1e230.0a7f44f366^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-06T14:58:16Z</t>
-  </si>
-  <si>
-    <t>98d9c92cea990a19</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.44e1a2f4ed8440aea6fd8eb2e1380c45931b4f393f264e37b26e5904d3a0e586.62f915170e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2023-10-11T22:57:15Z</t>
   </si>
   <si>
@@ -4915,6 +4879,42 @@
   </si>
   <si>
     <t>Il sistema non permette l'inserimento di altri valori oltre quelli appartenenti al dizionario associato</t>
+  </si>
+  <si>
+    <t>2023-11-28T09:39:13Z</t>
+  </si>
+  <si>
+    <t>82b4cc31b437e6bc</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.200.4.4.d5809fea07b5089ca11bc401066533b5fc7493697ce980565d394420a194dac5.fb05f4c013^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-28T10:22:10Z</t>
+  </si>
+  <si>
+    <t>21805023c3289097</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.200.4.4.7264e468d7adad95d92027b5958f617448f97b4882d46c97c98308e4e57af9b4.1f8afe2e8e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-28T10:29:26Z</t>
+  </si>
+  <si>
+    <t>d9d488bd7166e3c6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.200.4.4.cac285cd993e6989a5266be26719f049a72678a9621262888b4ad7f7b1ef1c64.d3cd5091da^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-24T17:11:58Z</t>
+  </si>
+  <si>
+    <t>f2f1268e638e8cac</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.200.4.4.7efc9af8444ee42ea570d6d4f70994a10de15e8d79b8c704230c9fd64f58ce03.2f7fe4b5a3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -5243,7 +5243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5344,6 +5344,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5365,43 +5371,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7867,10 +7836,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B152" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="M380" sqref="M380"/>
+      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -7912,12 +7881,12 @@
       <c r="T1" s="12"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="39"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="41"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
@@ -7935,14 +7904,14 @@
       <c r="T2" s="12"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="49" t="s">
         <v>849</v>
       </c>
-      <c r="D3" s="39"/>
+      <c r="D3" s="41"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -7960,12 +7929,12 @@
       <c r="T3" s="12"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="47" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="49" t="s">
         <v>850</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="4"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -7984,12 +7953,12 @@
       <c r="T4" s="12"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="47" t="s">
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49" t="s">
         <v>851</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="41"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -8007,8 +7976,8 @@
       <c r="T5" s="12"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="13"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -8839,179 +8808,179 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="49" customFormat="1" ht="187.2">
-      <c r="A31" s="50">
+    <row r="31" spans="1:20" ht="187.2">
+      <c r="A31" s="17">
         <v>24</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="51" t="s">
+      <c r="C31" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="51" t="s">
+      <c r="D31" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="52" t="s">
+      <c r="E31" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="F31" s="53">
-        <v>45233</v>
-      </c>
-      <c r="G31" s="54" t="s">
-        <v>852</v>
-      </c>
-      <c r="H31" s="54" t="s">
-        <v>853</v>
-      </c>
-      <c r="I31" s="54" t="s">
-        <v>854</v>
-      </c>
-      <c r="J31" s="55" t="s">
+      <c r="F31" s="20">
+        <v>45254</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>960</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>961</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>962</v>
+      </c>
+      <c r="J31" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="58" t="s">
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="49" customFormat="1" ht="187.2">
-      <c r="A32" s="50">
+    <row r="32" spans="1:20" ht="187.2">
+      <c r="A32" s="17">
         <v>25</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="51" t="s">
+      <c r="D32" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="52" t="s">
+      <c r="E32" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="53">
-        <v>45236</v>
-      </c>
-      <c r="G32" s="54" t="s">
-        <v>855</v>
-      </c>
-      <c r="H32" s="54" t="s">
-        <v>856</v>
-      </c>
-      <c r="I32" s="54" t="s">
-        <v>857</v>
-      </c>
-      <c r="J32" s="55" t="s">
+      <c r="F32" s="20">
+        <v>45258</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>951</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>952</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>953</v>
+      </c>
+      <c r="J32" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="57"/>
-      <c r="T32" s="58" t="s">
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="49" customFormat="1" ht="187.2">
-      <c r="A33" s="50">
+    <row r="33" spans="1:20" ht="187.2">
+      <c r="A33" s="17">
         <v>26</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="51" t="s">
+      <c r="C33" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E33" s="52" t="s">
+      <c r="E33" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="F33" s="53">
-        <v>45236</v>
-      </c>
-      <c r="G33" s="54" t="s">
-        <v>858</v>
-      </c>
-      <c r="H33" s="54" t="s">
-        <v>859</v>
-      </c>
-      <c r="I33" s="54" t="s">
-        <v>860</v>
-      </c>
-      <c r="J33" s="55" t="s">
+      <c r="F33" s="20">
+        <v>45258</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>954</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>955</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>956</v>
+      </c>
+      <c r="J33" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="57"/>
-      <c r="T33" s="58" t="s">
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="49" customFormat="1" ht="187.2">
-      <c r="A34" s="50">
+    <row r="34" spans="1:20" ht="187.2">
+      <c r="A34" s="17">
         <v>27</v>
       </c>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="51" t="s">
+      <c r="C34" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="51" t="s">
+      <c r="D34" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="52" t="s">
+      <c r="E34" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F34" s="53">
-        <v>45236</v>
-      </c>
-      <c r="G34" s="54" t="s">
-        <v>861</v>
-      </c>
-      <c r="H34" s="54" t="s">
-        <v>862</v>
-      </c>
-      <c r="I34" s="54" t="s">
-        <v>863</v>
-      </c>
-      <c r="J34" s="55" t="s">
+      <c r="F34" s="20">
+        <v>45258</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>957</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>958</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>959</v>
+      </c>
+      <c r="J34" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="56"/>
-      <c r="S34" s="57"/>
-      <c r="T34" s="58" t="s">
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="25" t="s">
         <v>48</v>
       </c>
     </row>
@@ -9253,55 +9222,55 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="49" customFormat="1" ht="163.19999999999999" customHeight="1">
-      <c r="A42" s="50">
+    <row r="42" spans="1:20" ht="163.19999999999999" customHeight="1">
+      <c r="A42" s="17">
         <v>35</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D42" s="51" t="s">
+      <c r="D42" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="E42" s="52" t="s">
+      <c r="E42" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="F42" s="53">
+      <c r="F42" s="20">
         <v>45236</v>
       </c>
-      <c r="G42" s="54" t="s">
-        <v>868</v>
-      </c>
-      <c r="H42" s="54" t="s">
-        <v>869</v>
-      </c>
-      <c r="I42" s="54" t="s">
-        <v>867</v>
-      </c>
-      <c r="J42" s="55" t="s">
+      <c r="G42" s="21" t="s">
+        <v>856</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>857</v>
+      </c>
+      <c r="I42" s="21" t="s">
+        <v>855</v>
+      </c>
+      <c r="J42" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="K42" s="55"/>
-      <c r="L42" s="55" t="s">
+      <c r="K42" s="22"/>
+      <c r="L42" s="22" t="s">
         <v>848</v>
       </c>
-      <c r="M42" s="55" t="s">
+      <c r="M42" s="22" t="s">
         <v>848</v>
       </c>
-      <c r="N42" s="55"/>
-      <c r="O42" s="55" t="s">
+      <c r="N42" s="22"/>
+      <c r="O42" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="P42" s="59" t="s">
-        <v>947</v>
-      </c>
-      <c r="Q42" s="55"/>
-      <c r="R42" s="56"/>
-      <c r="S42" s="57"/>
-      <c r="T42" s="58" t="s">
+      <c r="P42" s="36" t="s">
+        <v>935</v>
+      </c>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="23"/>
+      <c r="S42" s="24"/>
+      <c r="T42" s="25" t="s">
         <v>104</v>
       </c>
     </row>
@@ -9543,55 +9512,55 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:20" s="49" customFormat="1" ht="187.2">
-      <c r="A50" s="50">
+    <row r="50" spans="1:20" ht="187.2">
+      <c r="A50" s="17">
         <v>43</v>
       </c>
-      <c r="B50" s="51" t="s">
+      <c r="B50" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="51" t="s">
+      <c r="C50" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="51" t="s">
+      <c r="D50" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E50" s="52" t="s">
+      <c r="E50" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="F50" s="53">
+      <c r="F50" s="20">
         <v>45236</v>
       </c>
-      <c r="G50" s="54" t="s">
-        <v>870</v>
-      </c>
-      <c r="H50" s="54" t="s">
-        <v>871</v>
-      </c>
-      <c r="I50" s="54" t="s">
-        <v>867</v>
-      </c>
-      <c r="J50" s="55" t="s">
+      <c r="G50" s="21" t="s">
+        <v>858</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>859</v>
+      </c>
+      <c r="I50" s="21" t="s">
+        <v>855</v>
+      </c>
+      <c r="J50" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="K50" s="55"/>
-      <c r="L50" s="55" t="s">
+      <c r="K50" s="22"/>
+      <c r="L50" s="22" t="s">
         <v>848</v>
       </c>
-      <c r="M50" s="55" t="s">
+      <c r="M50" s="22" t="s">
         <v>848</v>
       </c>
-      <c r="N50" s="59"/>
-      <c r="O50" s="55" t="s">
+      <c r="N50" s="36"/>
+      <c r="O50" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="P50" s="59" t="s">
-        <v>947</v>
-      </c>
-      <c r="Q50" s="55"/>
-      <c r="R50" s="56"/>
-      <c r="S50" s="57"/>
-      <c r="T50" s="58" t="s">
+      <c r="P50" s="36" t="s">
+        <v>935</v>
+      </c>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="23"/>
+      <c r="S50" s="24"/>
+      <c r="T50" s="25" t="s">
         <v>104</v>
       </c>
     </row>
@@ -9623,12 +9592,12 @@
       <c r="M51" s="22" t="s">
         <v>848</v>
       </c>
-      <c r="N51" s="48"/>
+      <c r="N51" s="36"/>
       <c r="O51" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="P51" s="48" t="s">
-        <v>948</v>
+      <c r="P51" s="36" t="s">
+        <v>936</v>
       </c>
       <c r="Q51" s="22"/>
       <c r="R51" s="23" t="s">
@@ -9855,51 +9824,51 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:20" s="49" customFormat="1" ht="98.4" customHeight="1">
-      <c r="A58" s="50">
+    <row r="58" spans="1:20" ht="98.4" customHeight="1">
+      <c r="A58" s="17">
         <v>51</v>
       </c>
-      <c r="B58" s="51" t="s">
+      <c r="B58" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C58" s="51" t="s">
+      <c r="C58" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D58" s="51" t="s">
+      <c r="D58" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="E58" s="52" t="s">
+      <c r="E58" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="F58" s="53">
+      <c r="F58" s="20">
         <v>45236</v>
       </c>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="54"/>
-      <c r="J58" s="55" t="s">
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="K58" s="55"/>
-      <c r="L58" s="55" t="s">
+      <c r="K58" s="22"/>
+      <c r="L58" s="22" t="s">
         <v>848</v>
       </c>
-      <c r="M58" s="55" t="s">
+      <c r="M58" s="22" t="s">
         <v>848</v>
       </c>
-      <c r="N58" s="59"/>
-      <c r="O58" s="55" t="s">
+      <c r="N58" s="36"/>
+      <c r="O58" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="P58" s="59" t="s">
-        <v>948</v>
-      </c>
-      <c r="Q58" s="55"/>
-      <c r="R58" s="56" t="s">
+      <c r="P58" s="36" t="s">
+        <v>936</v>
+      </c>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="S58" s="57"/>
-      <c r="T58" s="58" t="s">
+      <c r="S58" s="24"/>
+      <c r="T58" s="25" t="s">
         <v>104</v>
       </c>
     </row>
@@ -12283,1325 +12252,1325 @@
         <v>104</v>
       </c>
     </row>
-    <row r="129" spans="1:20" s="49" customFormat="1" ht="129.6" customHeight="1">
-      <c r="A129" s="50">
+    <row r="129" spans="1:20" ht="129.6" customHeight="1">
+      <c r="A129" s="17">
         <v>122</v>
       </c>
-      <c r="B129" s="51" t="s">
+      <c r="B129" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C129" s="51" t="s">
+      <c r="C129" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D129" s="51" t="s">
+      <c r="D129" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="E129" s="52" t="s">
+      <c r="E129" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="F129" s="53">
+      <c r="F129" s="20">
         <v>45236</v>
       </c>
-      <c r="G129" s="54" t="s">
+      <c r="G129" s="21" t="s">
+        <v>860</v>
+      </c>
+      <c r="H129" s="21" t="s">
+        <v>861</v>
+      </c>
+      <c r="I129" s="21" t="s">
+        <v>862</v>
+      </c>
+      <c r="J129" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K129" s="22"/>
+      <c r="L129" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="M129" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="N129" s="22"/>
+      <c r="O129" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="P129" s="22" t="s">
+        <v>937</v>
+      </c>
+      <c r="Q129" s="22"/>
+      <c r="R129" s="23"/>
+      <c r="S129" s="24"/>
+      <c r="T129" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" ht="144">
+      <c r="A130" s="17">
+        <v>123</v>
+      </c>
+      <c r="B130" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D130" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="E130" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="F130" s="20">
+        <v>45236</v>
+      </c>
+      <c r="G130" s="21" t="s">
+        <v>863</v>
+      </c>
+      <c r="H130" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="I130" s="21" t="s">
+        <v>865</v>
+      </c>
+      <c r="J130" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K130" s="22"/>
+      <c r="L130" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="M130" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="N130" s="22" t="s">
+        <v>938</v>
+      </c>
+      <c r="O130" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="P130" s="22" t="s">
+        <v>939</v>
+      </c>
+      <c r="Q130" s="22"/>
+      <c r="R130" s="23"/>
+      <c r="S130" s="24"/>
+      <c r="T130" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" ht="144">
+      <c r="A131" s="17">
+        <v>124</v>
+      </c>
+      <c r="B131" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D131" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="E131" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="F131" s="20">
+        <v>45236</v>
+      </c>
+      <c r="G131" s="21" t="s">
+        <v>866</v>
+      </c>
+      <c r="H131" s="21" t="s">
+        <v>867</v>
+      </c>
+      <c r="I131" s="21" t="s">
+        <v>868</v>
+      </c>
+      <c r="J131" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K131" s="22"/>
+      <c r="L131" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="M131" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="N131" s="22"/>
+      <c r="O131" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="P131" s="22" t="s">
+        <v>940</v>
+      </c>
+      <c r="Q131" s="22"/>
+      <c r="R131" s="23"/>
+      <c r="S131" s="24"/>
+      <c r="T131" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" ht="158.4">
+      <c r="A132" s="17">
+        <v>125</v>
+      </c>
+      <c r="B132" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C132" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D132" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="E132" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="F132" s="20">
+        <v>45236</v>
+      </c>
+      <c r="G132" s="21" t="s">
+        <v>869</v>
+      </c>
+      <c r="H132" s="21" t="s">
+        <v>870</v>
+      </c>
+      <c r="I132" s="21" t="s">
+        <v>871</v>
+      </c>
+      <c r="J132" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K132" s="22"/>
+      <c r="L132" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="M132" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="N132" s="22" t="s">
+        <v>941</v>
+      </c>
+      <c r="O132" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="P132" s="22" t="s">
+        <v>942</v>
+      </c>
+      <c r="Q132" s="22"/>
+      <c r="R132" s="23"/>
+      <c r="S132" s="24"/>
+      <c r="T132" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" ht="144">
+      <c r="A133" s="17">
+        <v>126</v>
+      </c>
+      <c r="B133" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C133" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D133" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="E133" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="F133" s="20">
+        <v>45236</v>
+      </c>
+      <c r="G133" s="21" t="s">
         <v>872</v>
       </c>
-      <c r="H129" s="54" t="s">
+      <c r="H133" s="21" t="s">
         <v>873</v>
       </c>
-      <c r="I129" s="54" t="s">
+      <c r="I133" s="21" t="s">
         <v>874</v>
       </c>
-      <c r="J129" s="55" t="s">
+      <c r="J133" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="K129" s="55"/>
-      <c r="L129" s="55" t="s">
+      <c r="K133" s="22"/>
+      <c r="L133" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="M133" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="N133" s="22" t="s">
+        <v>943</v>
+      </c>
+      <c r="O133" s="22" t="s">
         <v>848</v>
       </c>
-      <c r="M129" s="55" t="s">
+      <c r="P133" s="22" t="s">
+        <v>942</v>
+      </c>
+      <c r="Q133" s="22"/>
+      <c r="R133" s="23"/>
+      <c r="S133" s="24"/>
+      <c r="T133" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" ht="144">
+      <c r="A134" s="17">
+        <v>127</v>
+      </c>
+      <c r="B134" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C134" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D134" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E134" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="F134" s="20">
+        <v>45236</v>
+      </c>
+      <c r="G134" s="21" t="s">
+        <v>875</v>
+      </c>
+      <c r="H134" s="21" t="s">
+        <v>876</v>
+      </c>
+      <c r="I134" s="21" t="s">
+        <v>877</v>
+      </c>
+      <c r="J134" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K134" s="22"/>
+      <c r="L134" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="M134" s="22" t="s">
         <v>848</v>
       </c>
-      <c r="N129" s="55"/>
-      <c r="O129" s="55" t="s">
+      <c r="N134" s="22"/>
+      <c r="O134" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="P134" s="22" t="s">
+        <v>944</v>
+      </c>
+      <c r="Q134" s="22"/>
+      <c r="R134" s="23"/>
+      <c r="S134" s="24"/>
+      <c r="T134" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" ht="144">
+      <c r="A135" s="17">
+        <v>128</v>
+      </c>
+      <c r="B135" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C135" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D135" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="E135" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="F135" s="20">
+        <v>45237</v>
+      </c>
+      <c r="G135" s="21" t="s">
+        <v>878</v>
+      </c>
+      <c r="H135" s="21" t="s">
+        <v>879</v>
+      </c>
+      <c r="I135" s="21" t="s">
+        <v>880</v>
+      </c>
+      <c r="J135" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="P129" s="55" t="s">
+      <c r="K135" s="22"/>
+      <c r="L135" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="M135" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="N135" s="22" t="s">
+        <v>946</v>
+      </c>
+      <c r="O135" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="P135" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="Q135" s="22"/>
+      <c r="R135" s="23"/>
+      <c r="S135" s="24"/>
+      <c r="T135" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" ht="158.4">
+      <c r="A136" s="17">
+        <v>129</v>
+      </c>
+      <c r="B136" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C136" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D136" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="E136" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="F136" s="20">
+        <v>45237</v>
+      </c>
+      <c r="G136" s="21" t="s">
+        <v>881</v>
+      </c>
+      <c r="H136" s="21" t="s">
+        <v>882</v>
+      </c>
+      <c r="I136" s="21" t="s">
+        <v>883</v>
+      </c>
+      <c r="J136" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K136" s="22"/>
+      <c r="L136" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="M136" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="N136" s="22"/>
+      <c r="O136" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="P136" s="22" t="s">
+        <v>947</v>
+      </c>
+      <c r="Q136" s="22"/>
+      <c r="R136" s="23"/>
+      <c r="S136" s="24"/>
+      <c r="T136" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" ht="144">
+      <c r="A137" s="17">
+        <v>130</v>
+      </c>
+      <c r="B137" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C137" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D137" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="E137" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="F137" s="20">
+        <v>45237</v>
+      </c>
+      <c r="G137" s="21" t="s">
+        <v>886</v>
+      </c>
+      <c r="H137" s="21" t="s">
+        <v>885</v>
+      </c>
+      <c r="I137" s="21" t="s">
+        <v>884</v>
+      </c>
+      <c r="J137" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K137" s="22"/>
+      <c r="L137" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="M137" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="N137" s="22" t="s">
+        <v>946</v>
+      </c>
+      <c r="O137" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="P137" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="Q137" s="22"/>
+      <c r="R137" s="23"/>
+      <c r="S137" s="24"/>
+      <c r="T137" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" ht="189.6" customHeight="1">
+      <c r="A138" s="17">
+        <v>131</v>
+      </c>
+      <c r="B138" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C138" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D138" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="E138" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="F138" s="20">
+        <v>45237</v>
+      </c>
+      <c r="G138" s="21" t="s">
+        <v>889</v>
+      </c>
+      <c r="H138" s="21" t="s">
+        <v>887</v>
+      </c>
+      <c r="I138" s="21" t="s">
+        <v>888</v>
+      </c>
+      <c r="J138" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K138" s="22"/>
+      <c r="L138" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="M138" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="N138" s="22" t="s">
+        <v>946</v>
+      </c>
+      <c r="O138" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="P138" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="Q138" s="22"/>
+      <c r="R138" s="23"/>
+      <c r="S138" s="24"/>
+      <c r="T138" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" ht="144">
+      <c r="A139" s="17">
+        <v>132</v>
+      </c>
+      <c r="B139" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C139" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D139" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="E139" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="F139" s="20">
+        <v>45237</v>
+      </c>
+      <c r="G139" s="21" t="s">
+        <v>890</v>
+      </c>
+      <c r="H139" s="21" t="s">
+        <v>891</v>
+      </c>
+      <c r="I139" s="21" t="s">
+        <v>892</v>
+      </c>
+      <c r="J139" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K139" s="22"/>
+      <c r="L139" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="M139" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="N139" s="22" t="s">
+        <v>946</v>
+      </c>
+      <c r="O139" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="P139" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="Q139" s="22"/>
+      <c r="R139" s="23"/>
+      <c r="S139" s="24"/>
+      <c r="T139" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" ht="158.4">
+      <c r="A140" s="17">
+        <v>133</v>
+      </c>
+      <c r="B140" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C140" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D140" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="E140" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="F140" s="20">
+        <v>45237</v>
+      </c>
+      <c r="G140" s="21" t="s">
+        <v>893</v>
+      </c>
+      <c r="H140" s="21" t="s">
+        <v>894</v>
+      </c>
+      <c r="I140" s="21" t="s">
+        <v>895</v>
+      </c>
+      <c r="J140" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K140" s="22"/>
+      <c r="L140" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="M140" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="N140" s="22" t="s">
         <v>949</v>
       </c>
-      <c r="Q129" s="55"/>
-      <c r="R129" s="56"/>
-      <c r="S129" s="57"/>
-      <c r="T129" s="58" t="s">
+      <c r="O140" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="P140" s="22" t="s">
+        <v>948</v>
+      </c>
+      <c r="Q140" s="22"/>
+      <c r="R140" s="23"/>
+      <c r="S140" s="24"/>
+      <c r="T140" s="25" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="130" spans="1:20" s="49" customFormat="1" ht="144">
-      <c r="A130" s="50">
-        <v>123</v>
-      </c>
-      <c r="B130" s="51" t="s">
+    <row r="141" spans="1:20" ht="144">
+      <c r="A141" s="17">
+        <v>134</v>
+      </c>
+      <c r="B141" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C130" s="51" t="s">
+      <c r="C141" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D130" s="51" t="s">
-        <v>289</v>
-      </c>
-      <c r="E130" s="52" t="s">
-        <v>290</v>
-      </c>
-      <c r="F130" s="53">
-        <v>45236</v>
-      </c>
-      <c r="G130" s="54" t="s">
-        <v>875</v>
-      </c>
-      <c r="H130" s="54" t="s">
-        <v>876</v>
-      </c>
-      <c r="I130" s="54" t="s">
-        <v>877</v>
-      </c>
-      <c r="J130" s="55" t="s">
+      <c r="D141" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="E141" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="F141" s="20">
+        <v>45237</v>
+      </c>
+      <c r="G141" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="H141" s="21" t="s">
+        <v>897</v>
+      </c>
+      <c r="I141" s="21" t="s">
+        <v>898</v>
+      </c>
+      <c r="J141" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="K130" s="55"/>
-      <c r="L130" s="55" t="s">
+      <c r="K141" s="22"/>
+      <c r="L141" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="M141" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="N141" s="36"/>
+      <c r="O141" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="M130" s="55" t="s">
+      <c r="P141" s="36" t="s">
+        <v>935</v>
+      </c>
+      <c r="Q141" s="22"/>
+      <c r="R141" s="23"/>
+      <c r="S141" s="24"/>
+      <c r="T141" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" ht="144">
+      <c r="A142" s="17">
+        <v>135</v>
+      </c>
+      <c r="B142" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C142" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D142" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="E142" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="F142" s="20">
+        <v>45237</v>
+      </c>
+      <c r="G142" s="21" t="s">
+        <v>900</v>
+      </c>
+      <c r="H142" s="21" t="s">
+        <v>899</v>
+      </c>
+      <c r="I142" s="21" t="s">
+        <v>901</v>
+      </c>
+      <c r="J142" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="N130" s="55" t="s">
+      <c r="K142" s="22"/>
+      <c r="L142" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="M142" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="N142" s="36"/>
+      <c r="O142" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="P142" s="36" t="s">
+        <v>935</v>
+      </c>
+      <c r="Q142" s="22"/>
+      <c r="R142" s="23"/>
+      <c r="S142" s="24"/>
+      <c r="T142" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" ht="144">
+      <c r="A143" s="17">
+        <v>136</v>
+      </c>
+      <c r="B143" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C143" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D143" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="E143" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="F143" s="20">
+        <v>45237</v>
+      </c>
+      <c r="G143" s="21" t="s">
+        <v>902</v>
+      </c>
+      <c r="H143" s="21" t="s">
+        <v>903</v>
+      </c>
+      <c r="I143" s="21" t="s">
+        <v>904</v>
+      </c>
+      <c r="J143" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K143" s="22"/>
+      <c r="L143" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="M143" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="N143" s="36"/>
+      <c r="O143" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="P143" s="36" t="s">
+        <v>935</v>
+      </c>
+      <c r="Q143" s="22"/>
+      <c r="R143" s="23"/>
+      <c r="S143" s="24"/>
+      <c r="T143" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" ht="158.4">
+      <c r="A144" s="17">
+        <v>137</v>
+      </c>
+      <c r="B144" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C144" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D144" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="E144" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="F144" s="20">
+        <v>45237</v>
+      </c>
+      <c r="G144" s="21" t="s">
+        <v>905</v>
+      </c>
+      <c r="H144" s="21" t="s">
+        <v>906</v>
+      </c>
+      <c r="I144" s="21" t="s">
+        <v>907</v>
+      </c>
+      <c r="J144" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K144" s="22"/>
+      <c r="L144" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="M144" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="N144" s="22" t="s">
+        <v>946</v>
+      </c>
+      <c r="O144" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="P144" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="Q144" s="22"/>
+      <c r="R144" s="23"/>
+      <c r="S144" s="24"/>
+      <c r="T144" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" ht="144">
+      <c r="A145" s="17">
+        <v>138</v>
+      </c>
+      <c r="B145" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C145" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D145" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="E145" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="F145" s="20">
+        <v>45237</v>
+      </c>
+      <c r="G145" s="21" t="s">
+        <v>908</v>
+      </c>
+      <c r="H145" s="21" t="s">
+        <v>909</v>
+      </c>
+      <c r="I145" s="21" t="s">
+        <v>910</v>
+      </c>
+      <c r="J145" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K145" s="22"/>
+      <c r="L145" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="M145" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="N145" s="36"/>
+      <c r="O145" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="P145" s="36" t="s">
+        <v>935</v>
+      </c>
+      <c r="Q145" s="22"/>
+      <c r="R145" s="23"/>
+      <c r="S145" s="24"/>
+      <c r="T145" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" ht="144">
+      <c r="A146" s="17">
+        <v>139</v>
+      </c>
+      <c r="B146" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C146" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D146" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="E146" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="F146" s="20">
+        <v>45237</v>
+      </c>
+      <c r="G146" s="21" t="s">
+        <v>911</v>
+      </c>
+      <c r="H146" s="21" t="s">
+        <v>912</v>
+      </c>
+      <c r="I146" s="21" t="s">
+        <v>913</v>
+      </c>
+      <c r="J146" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K146" s="22"/>
+      <c r="L146" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="M146" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="N146" s="22"/>
+      <c r="O146" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="P146" s="22" t="s">
+        <v>947</v>
+      </c>
+      <c r="Q146" s="22"/>
+      <c r="R146" s="23"/>
+      <c r="S146" s="24"/>
+      <c r="T146" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" ht="144">
+      <c r="A147" s="17">
+        <v>140</v>
+      </c>
+      <c r="B147" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C147" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D147" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="E147" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="F147" s="20">
+        <v>45237</v>
+      </c>
+      <c r="G147" s="21" t="s">
+        <v>914</v>
+      </c>
+      <c r="H147" s="21" t="s">
+        <v>915</v>
+      </c>
+      <c r="I147" s="21" t="s">
+        <v>916</v>
+      </c>
+      <c r="J147" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K147" s="22"/>
+      <c r="L147" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="M147" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="N147" s="22" t="s">
+        <v>946</v>
+      </c>
+      <c r="O147" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="P147" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="Q147" s="22"/>
+      <c r="R147" s="23"/>
+      <c r="S147" s="24"/>
+      <c r="T147" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" ht="158.4">
+      <c r="A148" s="17">
+        <v>141</v>
+      </c>
+      <c r="B148" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D148" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="E148" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="F148" s="20">
+        <v>45237</v>
+      </c>
+      <c r="G148" s="21" t="s">
+        <v>917</v>
+      </c>
+      <c r="H148" s="21" t="s">
+        <v>918</v>
+      </c>
+      <c r="I148" s="21" t="s">
+        <v>919</v>
+      </c>
+      <c r="J148" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K148" s="22"/>
+      <c r="L148" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="M148" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="N148" s="22" t="s">
+        <v>946</v>
+      </c>
+      <c r="O148" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="P148" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="Q148" s="22"/>
+      <c r="R148" s="23"/>
+      <c r="S148" s="24"/>
+      <c r="T148" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" ht="144">
+      <c r="A149" s="17">
+        <v>142</v>
+      </c>
+      <c r="B149" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C149" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D149" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="E149" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="F149" s="20">
+        <v>45237</v>
+      </c>
+      <c r="G149" s="21" t="s">
+        <v>920</v>
+      </c>
+      <c r="H149" s="21" t="s">
+        <v>921</v>
+      </c>
+      <c r="I149" s="21" t="s">
+        <v>922</v>
+      </c>
+      <c r="J149" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K149" s="22"/>
+      <c r="L149" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="M149" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="N149" s="22"/>
+      <c r="O149" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="P149" s="22" t="s">
         <v>950</v>
       </c>
-      <c r="O130" s="55" t="s">
+      <c r="Q149" s="22"/>
+      <c r="R149" s="23"/>
+      <c r="S149" s="24"/>
+      <c r="T149" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" ht="144">
+      <c r="A150" s="17">
+        <v>143</v>
+      </c>
+      <c r="B150" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C150" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D150" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="E150" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="F150" s="20">
+        <v>45237</v>
+      </c>
+      <c r="G150" s="37" t="s">
+        <v>924</v>
+      </c>
+      <c r="H150" s="21" t="s">
+        <v>923</v>
+      </c>
+      <c r="I150" s="21" t="s">
+        <v>925</v>
+      </c>
+      <c r="J150" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K150" s="22"/>
+      <c r="L150" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="M150" s="22" t="s">
         <v>848</v>
       </c>
-      <c r="P130" s="55" t="s">
-        <v>951</v>
-      </c>
-      <c r="Q130" s="55"/>
-      <c r="R130" s="56"/>
-      <c r="S130" s="57"/>
-      <c r="T130" s="58" t="s">
+      <c r="N150" s="22"/>
+      <c r="O150" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="P150" s="22" t="s">
+        <v>950</v>
+      </c>
+      <c r="Q150" s="22"/>
+      <c r="R150" s="23"/>
+      <c r="S150" s="24"/>
+      <c r="T150" s="25" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="131" spans="1:20" s="49" customFormat="1" ht="144">
-      <c r="A131" s="50">
-        <v>124</v>
-      </c>
-      <c r="B131" s="51" t="s">
+    <row r="151" spans="1:20" ht="144">
+      <c r="A151" s="17">
+        <v>144</v>
+      </c>
+      <c r="B151" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C131" s="51" t="s">
+      <c r="C151" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D131" s="51" t="s">
-        <v>291</v>
-      </c>
-      <c r="E131" s="52" t="s">
-        <v>292</v>
-      </c>
-      <c r="F131" s="53">
-        <v>45236</v>
-      </c>
-      <c r="G131" s="54" t="s">
-        <v>878</v>
-      </c>
-      <c r="H131" s="54" t="s">
-        <v>879</v>
-      </c>
-      <c r="I131" s="54" t="s">
-        <v>880</v>
-      </c>
-      <c r="J131" s="55" t="s">
+      <c r="D151" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="E151" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="F151" s="20">
+        <v>45237</v>
+      </c>
+      <c r="G151" s="21" t="s">
+        <v>926</v>
+      </c>
+      <c r="H151" s="21" t="s">
+        <v>927</v>
+      </c>
+      <c r="I151" s="21" t="s">
+        <v>928</v>
+      </c>
+      <c r="J151" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="K131" s="55"/>
-      <c r="L131" s="55" t="s">
+      <c r="K151" s="22"/>
+      <c r="L151" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="M151" s="22" t="s">
         <v>848</v>
       </c>
-      <c r="M131" s="55" t="s">
+      <c r="N151" s="22"/>
+      <c r="O151" s="22" t="s">
         <v>848</v>
       </c>
-      <c r="N131" s="55"/>
-      <c r="O131" s="55" t="s">
+      <c r="P151" s="22" t="s">
+        <v>950</v>
+      </c>
+      <c r="Q151" s="22"/>
+      <c r="R151" s="23"/>
+      <c r="S151" s="24"/>
+      <c r="T151" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" ht="158.4">
+      <c r="A152" s="17">
+        <v>145</v>
+      </c>
+      <c r="B152" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C152" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D152" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="E152" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F152" s="20">
+        <v>45237</v>
+      </c>
+      <c r="G152" s="21" t="s">
+        <v>929</v>
+      </c>
+      <c r="H152" s="21" t="s">
+        <v>930</v>
+      </c>
+      <c r="I152" s="21" t="s">
+        <v>931</v>
+      </c>
+      <c r="J152" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="P131" s="55" t="s">
-        <v>952</v>
-      </c>
-      <c r="Q131" s="55"/>
-      <c r="R131" s="56"/>
-      <c r="S131" s="57"/>
-      <c r="T131" s="58" t="s">
+      <c r="K152" s="22"/>
+      <c r="L152" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="M152" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="N152" s="22"/>
+      <c r="O152" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="P152" s="22" t="s">
+        <v>950</v>
+      </c>
+      <c r="Q152" s="22"/>
+      <c r="R152" s="23"/>
+      <c r="S152" s="24"/>
+      <c r="T152" s="25" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="132" spans="1:20" s="49" customFormat="1" ht="158.4">
-      <c r="A132" s="50">
-        <v>125</v>
-      </c>
-      <c r="B132" s="51" t="s">
+    <row r="153" spans="1:20" ht="158.4">
+      <c r="A153" s="17">
+        <v>146</v>
+      </c>
+      <c r="B153" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C132" s="51" t="s">
+      <c r="C153" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D132" s="51" t="s">
-        <v>293</v>
-      </c>
-      <c r="E132" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="F132" s="53">
-        <v>45236</v>
-      </c>
-      <c r="G132" s="54" t="s">
-        <v>881</v>
-      </c>
-      <c r="H132" s="54" t="s">
-        <v>882</v>
-      </c>
-      <c r="I132" s="54" t="s">
-        <v>883</v>
-      </c>
-      <c r="J132" s="55" t="s">
+      <c r="D153" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="E153" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="F153" s="20">
+        <v>45237</v>
+      </c>
+      <c r="G153" s="21" t="s">
+        <v>932</v>
+      </c>
+      <c r="H153" s="21" t="s">
+        <v>933</v>
+      </c>
+      <c r="I153" s="21" t="s">
+        <v>934</v>
+      </c>
+      <c r="J153" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="K132" s="55"/>
-      <c r="L132" s="55" t="s">
+      <c r="K153" s="22"/>
+      <c r="L153" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="M153" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="N153" s="36"/>
+      <c r="O153" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="M132" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="N132" s="55" t="s">
-        <v>953</v>
-      </c>
-      <c r="O132" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="P132" s="55" t="s">
-        <v>954</v>
-      </c>
-      <c r="Q132" s="55"/>
-      <c r="R132" s="56"/>
-      <c r="S132" s="57"/>
-      <c r="T132" s="58" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="133" spans="1:20" s="49" customFormat="1" ht="144">
-      <c r="A133" s="50">
-        <v>126</v>
-      </c>
-      <c r="B133" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C133" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="D133" s="51" t="s">
-        <v>295</v>
-      </c>
-      <c r="E133" s="52" t="s">
-        <v>296</v>
-      </c>
-      <c r="F133" s="53">
-        <v>45236</v>
-      </c>
-      <c r="G133" s="54" t="s">
-        <v>884</v>
-      </c>
-      <c r="H133" s="54" t="s">
-        <v>885</v>
-      </c>
-      <c r="I133" s="54" t="s">
-        <v>886</v>
-      </c>
-      <c r="J133" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="K133" s="55"/>
-      <c r="L133" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="M133" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="N133" s="55" t="s">
-        <v>955</v>
-      </c>
-      <c r="O133" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="P133" s="55" t="s">
-        <v>954</v>
-      </c>
-      <c r="Q133" s="55"/>
-      <c r="R133" s="56"/>
-      <c r="S133" s="57"/>
-      <c r="T133" s="58" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="134" spans="1:20" s="49" customFormat="1" ht="144">
-      <c r="A134" s="50">
-        <v>127</v>
-      </c>
-      <c r="B134" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C134" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="D134" s="51" t="s">
-        <v>297</v>
-      </c>
-      <c r="E134" s="52" t="s">
-        <v>298</v>
-      </c>
-      <c r="F134" s="53">
-        <v>45236</v>
-      </c>
-      <c r="G134" s="54" t="s">
-        <v>887</v>
-      </c>
-      <c r="H134" s="54" t="s">
-        <v>888</v>
-      </c>
-      <c r="I134" s="54" t="s">
-        <v>889</v>
-      </c>
-      <c r="J134" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="K134" s="55"/>
-      <c r="L134" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="M134" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="N134" s="55"/>
-      <c r="O134" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="P134" s="55" t="s">
-        <v>956</v>
-      </c>
-      <c r="Q134" s="55"/>
-      <c r="R134" s="56"/>
-      <c r="S134" s="57"/>
-      <c r="T134" s="58" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="135" spans="1:20" s="49" customFormat="1" ht="144">
-      <c r="A135" s="50">
-        <v>128</v>
-      </c>
-      <c r="B135" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C135" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="D135" s="51" t="s">
-        <v>299</v>
-      </c>
-      <c r="E135" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="F135" s="53">
-        <v>45237</v>
-      </c>
-      <c r="G135" s="54" t="s">
-        <v>890</v>
-      </c>
-      <c r="H135" s="54" t="s">
-        <v>891</v>
-      </c>
-      <c r="I135" s="54" t="s">
-        <v>892</v>
-      </c>
-      <c r="J135" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="K135" s="55"/>
-      <c r="L135" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="M135" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="N135" s="55" t="s">
-        <v>958</v>
-      </c>
-      <c r="O135" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="P135" s="55" t="s">
-        <v>957</v>
-      </c>
-      <c r="Q135" s="55"/>
-      <c r="R135" s="56"/>
-      <c r="S135" s="57"/>
-      <c r="T135" s="58" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="136" spans="1:20" s="49" customFormat="1" ht="158.4">
-      <c r="A136" s="50">
-        <v>129</v>
-      </c>
-      <c r="B136" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C136" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="D136" s="51" t="s">
-        <v>301</v>
-      </c>
-      <c r="E136" s="52" t="s">
-        <v>302</v>
-      </c>
-      <c r="F136" s="53">
-        <v>45237</v>
-      </c>
-      <c r="G136" s="54" t="s">
-        <v>893</v>
-      </c>
-      <c r="H136" s="54" t="s">
-        <v>894</v>
-      </c>
-      <c r="I136" s="54" t="s">
-        <v>895</v>
-      </c>
-      <c r="J136" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="K136" s="55"/>
-      <c r="L136" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="M136" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="N136" s="55"/>
-      <c r="O136" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="P136" s="55" t="s">
-        <v>959</v>
-      </c>
-      <c r="Q136" s="55"/>
-      <c r="R136" s="56"/>
-      <c r="S136" s="57"/>
-      <c r="T136" s="58" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="137" spans="1:20" s="49" customFormat="1" ht="144">
-      <c r="A137" s="50">
-        <v>130</v>
-      </c>
-      <c r="B137" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C137" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="D137" s="51" t="s">
-        <v>303</v>
-      </c>
-      <c r="E137" s="52" t="s">
-        <v>304</v>
-      </c>
-      <c r="F137" s="53">
-        <v>45237</v>
-      </c>
-      <c r="G137" s="54" t="s">
-        <v>898</v>
-      </c>
-      <c r="H137" s="54" t="s">
-        <v>897</v>
-      </c>
-      <c r="I137" s="54" t="s">
-        <v>896</v>
-      </c>
-      <c r="J137" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="K137" s="55"/>
-      <c r="L137" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="M137" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="N137" s="55" t="s">
-        <v>958</v>
-      </c>
-      <c r="O137" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="P137" s="55" t="s">
-        <v>957</v>
-      </c>
-      <c r="Q137" s="55"/>
-      <c r="R137" s="56"/>
-      <c r="S137" s="57"/>
-      <c r="T137" s="58" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="138" spans="1:20" s="49" customFormat="1" ht="189.6" customHeight="1">
-      <c r="A138" s="50">
-        <v>131</v>
-      </c>
-      <c r="B138" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C138" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="D138" s="51" t="s">
-        <v>305</v>
-      </c>
-      <c r="E138" s="52" t="s">
-        <v>306</v>
-      </c>
-      <c r="F138" s="53">
-        <v>45237</v>
-      </c>
-      <c r="G138" s="54" t="s">
-        <v>901</v>
-      </c>
-      <c r="H138" s="54" t="s">
-        <v>899</v>
-      </c>
-      <c r="I138" s="54" t="s">
-        <v>900</v>
-      </c>
-      <c r="J138" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="K138" s="55"/>
-      <c r="L138" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="M138" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="N138" s="55" t="s">
-        <v>958</v>
-      </c>
-      <c r="O138" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="P138" s="55" t="s">
-        <v>957</v>
-      </c>
-      <c r="Q138" s="55"/>
-      <c r="R138" s="56"/>
-      <c r="S138" s="57"/>
-      <c r="T138" s="58" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="139" spans="1:20" s="49" customFormat="1" ht="144">
-      <c r="A139" s="50">
-        <v>132</v>
-      </c>
-      <c r="B139" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C139" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="D139" s="51" t="s">
-        <v>307</v>
-      </c>
-      <c r="E139" s="52" t="s">
-        <v>308</v>
-      </c>
-      <c r="F139" s="53">
-        <v>45237</v>
-      </c>
-      <c r="G139" s="54" t="s">
-        <v>902</v>
-      </c>
-      <c r="H139" s="54" t="s">
-        <v>903</v>
-      </c>
-      <c r="I139" s="54" t="s">
-        <v>904</v>
-      </c>
-      <c r="J139" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="K139" s="55"/>
-      <c r="L139" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="M139" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="N139" s="55" t="s">
-        <v>958</v>
-      </c>
-      <c r="O139" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="P139" s="55" t="s">
-        <v>957</v>
-      </c>
-      <c r="Q139" s="55"/>
-      <c r="R139" s="56"/>
-      <c r="S139" s="57"/>
-      <c r="T139" s="58" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="140" spans="1:20" s="49" customFormat="1" ht="158.4">
-      <c r="A140" s="50">
-        <v>133</v>
-      </c>
-      <c r="B140" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C140" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="D140" s="51" t="s">
-        <v>309</v>
-      </c>
-      <c r="E140" s="52" t="s">
-        <v>310</v>
-      </c>
-      <c r="F140" s="53">
-        <v>45237</v>
-      </c>
-      <c r="G140" s="54" t="s">
-        <v>905</v>
-      </c>
-      <c r="H140" s="54" t="s">
-        <v>906</v>
-      </c>
-      <c r="I140" s="54" t="s">
-        <v>907</v>
-      </c>
-      <c r="J140" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="K140" s="55"/>
-      <c r="L140" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="M140" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="N140" s="55" t="s">
-        <v>961</v>
-      </c>
-      <c r="O140" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="P140" s="55" t="s">
-        <v>960</v>
-      </c>
-      <c r="Q140" s="55"/>
-      <c r="R140" s="56"/>
-      <c r="S140" s="57"/>
-      <c r="T140" s="58" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="141" spans="1:20" s="49" customFormat="1" ht="144">
-      <c r="A141" s="50">
-        <v>134</v>
-      </c>
-      <c r="B141" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C141" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="D141" s="51" t="s">
-        <v>311</v>
-      </c>
-      <c r="E141" s="52" t="s">
-        <v>312</v>
-      </c>
-      <c r="F141" s="53">
-        <v>45237</v>
-      </c>
-      <c r="G141" s="54" t="s">
-        <v>908</v>
-      </c>
-      <c r="H141" s="54" t="s">
-        <v>909</v>
-      </c>
-      <c r="I141" s="54" t="s">
-        <v>910</v>
-      </c>
-      <c r="J141" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="K141" s="55"/>
-      <c r="L141" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="M141" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="N141" s="59"/>
-      <c r="O141" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="P141" s="59" t="s">
-        <v>947</v>
-      </c>
-      <c r="Q141" s="55"/>
-      <c r="R141" s="56"/>
-      <c r="S141" s="57"/>
-      <c r="T141" s="58" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="142" spans="1:20" s="49" customFormat="1" ht="144">
-      <c r="A142" s="50">
-        <v>135</v>
-      </c>
-      <c r="B142" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C142" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="D142" s="51" t="s">
-        <v>313</v>
-      </c>
-      <c r="E142" s="52" t="s">
-        <v>314</v>
-      </c>
-      <c r="F142" s="53">
-        <v>45237</v>
-      </c>
-      <c r="G142" s="54" t="s">
-        <v>912</v>
-      </c>
-      <c r="H142" s="54" t="s">
-        <v>911</v>
-      </c>
-      <c r="I142" s="54" t="s">
-        <v>913</v>
-      </c>
-      <c r="J142" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="K142" s="55"/>
-      <c r="L142" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="M142" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="N142" s="59"/>
-      <c r="O142" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="P142" s="59" t="s">
-        <v>947</v>
-      </c>
-      <c r="Q142" s="55"/>
-      <c r="R142" s="56"/>
-      <c r="S142" s="57"/>
-      <c r="T142" s="58" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="143" spans="1:20" s="49" customFormat="1" ht="144">
-      <c r="A143" s="50">
-        <v>136</v>
-      </c>
-      <c r="B143" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C143" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="D143" s="51" t="s">
-        <v>315</v>
-      </c>
-      <c r="E143" s="52" t="s">
-        <v>316</v>
-      </c>
-      <c r="F143" s="53">
-        <v>45237</v>
-      </c>
-      <c r="G143" s="54" t="s">
-        <v>914</v>
-      </c>
-      <c r="H143" s="54" t="s">
-        <v>915</v>
-      </c>
-      <c r="I143" s="54" t="s">
-        <v>916</v>
-      </c>
-      <c r="J143" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="K143" s="55"/>
-      <c r="L143" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="M143" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="N143" s="59"/>
-      <c r="O143" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="P143" s="59" t="s">
-        <v>947</v>
-      </c>
-      <c r="Q143" s="55"/>
-      <c r="R143" s="56"/>
-      <c r="S143" s="57"/>
-      <c r="T143" s="58" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="144" spans="1:20" s="49" customFormat="1" ht="158.4">
-      <c r="A144" s="50">
-        <v>137</v>
-      </c>
-      <c r="B144" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C144" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="D144" s="51" t="s">
-        <v>317</v>
-      </c>
-      <c r="E144" s="52" t="s">
-        <v>318</v>
-      </c>
-      <c r="F144" s="53">
-        <v>45237</v>
-      </c>
-      <c r="G144" s="54" t="s">
-        <v>917</v>
-      </c>
-      <c r="H144" s="54" t="s">
-        <v>918</v>
-      </c>
-      <c r="I144" s="54" t="s">
-        <v>919</v>
-      </c>
-      <c r="J144" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="K144" s="55"/>
-      <c r="L144" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="M144" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="N144" s="55" t="s">
-        <v>958</v>
-      </c>
-      <c r="O144" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="P144" s="55" t="s">
-        <v>957</v>
-      </c>
-      <c r="Q144" s="55"/>
-      <c r="R144" s="56"/>
-      <c r="S144" s="57"/>
-      <c r="T144" s="58" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="145" spans="1:20" s="49" customFormat="1" ht="144">
-      <c r="A145" s="50">
-        <v>138</v>
-      </c>
-      <c r="B145" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C145" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="D145" s="51" t="s">
-        <v>319</v>
-      </c>
-      <c r="E145" s="52" t="s">
-        <v>320</v>
-      </c>
-      <c r="F145" s="53">
-        <v>45237</v>
-      </c>
-      <c r="G145" s="54" t="s">
-        <v>920</v>
-      </c>
-      <c r="H145" s="54" t="s">
-        <v>921</v>
-      </c>
-      <c r="I145" s="54" t="s">
-        <v>922</v>
-      </c>
-      <c r="J145" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="K145" s="55"/>
-      <c r="L145" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="M145" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="N145" s="59"/>
-      <c r="O145" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="P145" s="59" t="s">
-        <v>947</v>
-      </c>
-      <c r="Q145" s="55"/>
-      <c r="R145" s="56"/>
-      <c r="S145" s="57"/>
-      <c r="T145" s="58" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="146" spans="1:20" s="49" customFormat="1" ht="144">
-      <c r="A146" s="50">
-        <v>139</v>
-      </c>
-      <c r="B146" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C146" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="D146" s="51" t="s">
-        <v>321</v>
-      </c>
-      <c r="E146" s="52" t="s">
-        <v>322</v>
-      </c>
-      <c r="F146" s="53">
-        <v>45237</v>
-      </c>
-      <c r="G146" s="54" t="s">
-        <v>923</v>
-      </c>
-      <c r="H146" s="54" t="s">
-        <v>924</v>
-      </c>
-      <c r="I146" s="54" t="s">
-        <v>925</v>
-      </c>
-      <c r="J146" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="K146" s="55"/>
-      <c r="L146" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="M146" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="N146" s="55"/>
-      <c r="O146" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="P146" s="55" t="s">
-        <v>959</v>
-      </c>
-      <c r="Q146" s="55"/>
-      <c r="R146" s="56"/>
-      <c r="S146" s="57"/>
-      <c r="T146" s="58" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="147" spans="1:20" s="49" customFormat="1" ht="144">
-      <c r="A147" s="50">
-        <v>140</v>
-      </c>
-      <c r="B147" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C147" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="D147" s="51" t="s">
-        <v>323</v>
-      </c>
-      <c r="E147" s="52" t="s">
-        <v>324</v>
-      </c>
-      <c r="F147" s="53">
-        <v>45237</v>
-      </c>
-      <c r="G147" s="54" t="s">
-        <v>926</v>
-      </c>
-      <c r="H147" s="54" t="s">
-        <v>927</v>
-      </c>
-      <c r="I147" s="54" t="s">
-        <v>928</v>
-      </c>
-      <c r="J147" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="K147" s="55"/>
-      <c r="L147" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="M147" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="N147" s="55" t="s">
-        <v>958</v>
-      </c>
-      <c r="O147" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="P147" s="55" t="s">
-        <v>957</v>
-      </c>
-      <c r="Q147" s="55"/>
-      <c r="R147" s="56"/>
-      <c r="S147" s="57"/>
-      <c r="T147" s="58" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="148" spans="1:20" s="49" customFormat="1" ht="158.4">
-      <c r="A148" s="50">
-        <v>141</v>
-      </c>
-      <c r="B148" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C148" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="D148" s="51" t="s">
-        <v>325</v>
-      </c>
-      <c r="E148" s="52" t="s">
-        <v>326</v>
-      </c>
-      <c r="F148" s="53">
-        <v>45237</v>
-      </c>
-      <c r="G148" s="54" t="s">
-        <v>929</v>
-      </c>
-      <c r="H148" s="54" t="s">
-        <v>930</v>
-      </c>
-      <c r="I148" s="54" t="s">
-        <v>931</v>
-      </c>
-      <c r="J148" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="K148" s="55"/>
-      <c r="L148" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="M148" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="N148" s="55" t="s">
-        <v>958</v>
-      </c>
-      <c r="O148" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="P148" s="55" t="s">
-        <v>957</v>
-      </c>
-      <c r="Q148" s="55"/>
-      <c r="R148" s="56"/>
-      <c r="S148" s="57"/>
-      <c r="T148" s="58" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="149" spans="1:20" s="49" customFormat="1" ht="144">
-      <c r="A149" s="50">
-        <v>142</v>
-      </c>
-      <c r="B149" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C149" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="D149" s="51" t="s">
-        <v>327</v>
-      </c>
-      <c r="E149" s="52" t="s">
-        <v>328</v>
-      </c>
-      <c r="F149" s="53">
-        <v>45237</v>
-      </c>
-      <c r="G149" s="54" t="s">
-        <v>932</v>
-      </c>
-      <c r="H149" s="54" t="s">
-        <v>933</v>
-      </c>
-      <c r="I149" s="54" t="s">
-        <v>934</v>
-      </c>
-      <c r="J149" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="K149" s="55"/>
-      <c r="L149" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="M149" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="N149" s="55"/>
-      <c r="O149" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="P149" s="55" t="s">
-        <v>962</v>
-      </c>
-      <c r="Q149" s="55"/>
-      <c r="R149" s="56"/>
-      <c r="S149" s="57"/>
-      <c r="T149" s="58" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="150" spans="1:20" s="49" customFormat="1" ht="144">
-      <c r="A150" s="50">
-        <v>143</v>
-      </c>
-      <c r="B150" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C150" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="D150" s="51" t="s">
-        <v>329</v>
-      </c>
-      <c r="E150" s="52" t="s">
-        <v>330</v>
-      </c>
-      <c r="F150" s="53">
-        <v>45237</v>
-      </c>
-      <c r="G150" s="60" t="s">
-        <v>936</v>
-      </c>
-      <c r="H150" s="54" t="s">
+      <c r="P153" s="36" t="s">
         <v>935</v>
       </c>
-      <c r="I150" s="54" t="s">
-        <v>937</v>
-      </c>
-      <c r="J150" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="K150" s="55"/>
-      <c r="L150" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="M150" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="N150" s="55"/>
-      <c r="O150" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="P150" s="55" t="s">
-        <v>962</v>
-      </c>
-      <c r="Q150" s="55"/>
-      <c r="R150" s="56"/>
-      <c r="S150" s="57"/>
-      <c r="T150" s="58" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="151" spans="1:20" s="49" customFormat="1" ht="144">
-      <c r="A151" s="50">
-        <v>144</v>
-      </c>
-      <c r="B151" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C151" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="D151" s="51" t="s">
-        <v>331</v>
-      </c>
-      <c r="E151" s="52" t="s">
-        <v>332</v>
-      </c>
-      <c r="F151" s="53">
-        <v>45237</v>
-      </c>
-      <c r="G151" s="54" t="s">
-        <v>938</v>
-      </c>
-      <c r="H151" s="54" t="s">
-        <v>939</v>
-      </c>
-      <c r="I151" s="54" t="s">
-        <v>940</v>
-      </c>
-      <c r="J151" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="K151" s="55"/>
-      <c r="L151" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="M151" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="N151" s="55"/>
-      <c r="O151" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="P151" s="55" t="s">
-        <v>962</v>
-      </c>
-      <c r="Q151" s="55"/>
-      <c r="R151" s="56"/>
-      <c r="S151" s="57"/>
-      <c r="T151" s="58" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="152" spans="1:20" s="49" customFormat="1" ht="158.4">
-      <c r="A152" s="50">
-        <v>145</v>
-      </c>
-      <c r="B152" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C152" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="D152" s="51" t="s">
-        <v>333</v>
-      </c>
-      <c r="E152" s="52" t="s">
-        <v>334</v>
-      </c>
-      <c r="F152" s="53">
-        <v>45237</v>
-      </c>
-      <c r="G152" s="54" t="s">
-        <v>941</v>
-      </c>
-      <c r="H152" s="54" t="s">
-        <v>942</v>
-      </c>
-      <c r="I152" s="54" t="s">
-        <v>943</v>
-      </c>
-      <c r="J152" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="K152" s="55"/>
-      <c r="L152" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="M152" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="N152" s="55"/>
-      <c r="O152" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="P152" s="55" t="s">
-        <v>962</v>
-      </c>
-      <c r="Q152" s="55"/>
-      <c r="R152" s="56"/>
-      <c r="S152" s="57"/>
-      <c r="T152" s="58" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="153" spans="1:20" s="49" customFormat="1" ht="158.4">
-      <c r="A153" s="50">
-        <v>146</v>
-      </c>
-      <c r="B153" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C153" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="D153" s="51" t="s">
-        <v>335</v>
-      </c>
-      <c r="E153" s="52" t="s">
-        <v>336</v>
-      </c>
-      <c r="F153" s="53">
-        <v>45237</v>
-      </c>
-      <c r="G153" s="54" t="s">
-        <v>944</v>
-      </c>
-      <c r="H153" s="54" t="s">
-        <v>945</v>
-      </c>
-      <c r="I153" s="54" t="s">
-        <v>946</v>
-      </c>
-      <c r="J153" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="K153" s="55"/>
-      <c r="L153" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="M153" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="N153" s="59"/>
-      <c r="O153" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="P153" s="59" t="s">
-        <v>947</v>
-      </c>
-      <c r="Q153" s="55"/>
-      <c r="R153" s="56"/>
-      <c r="S153" s="57"/>
-      <c r="T153" s="58" t="s">
+      <c r="Q153" s="22"/>
+      <c r="R153" s="23"/>
+      <c r="S153" s="24"/>
+      <c r="T153" s="25" t="s">
         <v>104</v>
       </c>
     </row>
@@ -21289,47 +21258,47 @@
         <v>48</v>
       </c>
     </row>
-    <row r="380" spans="1:20" s="49" customFormat="1" ht="187.2">
-      <c r="A380" s="50">
+    <row r="380" spans="1:20" ht="187.2">
+      <c r="A380" s="17">
         <v>373</v>
       </c>
-      <c r="B380" s="51" t="s">
+      <c r="B380" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C380" s="51" t="s">
+      <c r="C380" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D380" s="51" t="s">
+      <c r="D380" s="18" t="s">
         <v>787</v>
       </c>
-      <c r="E380" s="52" t="s">
+      <c r="E380" s="19" t="s">
         <v>788</v>
       </c>
-      <c r="F380" s="53">
+      <c r="F380" s="20">
         <v>45210</v>
       </c>
-      <c r="G380" s="54" t="s">
-        <v>864</v>
-      </c>
-      <c r="H380" s="54" t="s">
-        <v>865</v>
-      </c>
-      <c r="I380" s="54" t="s">
-        <v>866</v>
-      </c>
-      <c r="J380" s="55" t="s">
+      <c r="G380" s="21" t="s">
+        <v>852</v>
+      </c>
+      <c r="H380" s="21" t="s">
+        <v>853</v>
+      </c>
+      <c r="I380" s="21" t="s">
+        <v>854</v>
+      </c>
+      <c r="J380" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="K380" s="55"/>
-      <c r="L380" s="55"/>
-      <c r="M380" s="55"/>
-      <c r="N380" s="55"/>
-      <c r="O380" s="55"/>
-      <c r="P380" s="55"/>
-      <c r="Q380" s="55"/>
-      <c r="R380" s="56"/>
-      <c r="S380" s="57"/>
-      <c r="T380" s="58" t="s">
+      <c r="K380" s="22"/>
+      <c r="L380" s="22"/>
+      <c r="M380" s="22"/>
+      <c r="N380" s="22"/>
+      <c r="O380" s="22"/>
+      <c r="P380" s="22"/>
+      <c r="Q380" s="22"/>
+      <c r="R380" s="23"/>
+      <c r="S380" s="24"/>
+      <c r="T380" s="25" t="s">
         <v>48</v>
       </c>
     </row>
@@ -28851,4 +28820,298 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004B0B21D7C87FDA4AB48A2A5274B76D59" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="bcd25b6d692e609784cef5e62ac1ef9a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f727d03-77e6-4ed8-b686-bfc5a8681394" xmlns:ns3="e6d4e7e7-7d2a-4b7b-91fb-dfcf799ece8c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6dd1e099223e11c426947ce331df957f" ns2:_="" ns3:_="">
+    <xsd:import namespace="7f727d03-77e6-4ed8-b686-bfc5a8681394"/>
+    <xsd:import namespace="e6d4e7e7-7d2a-4b7b-91fb-dfcf799ece8c"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7f727d03-77e6-4ed8-b686-bfc5a8681394" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_Flow_SignoffStatus" ma:index="12" nillable="true" ma:displayName="Sign-off status" ma:internalName="Sign_x002d_off_x0020_status">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="16" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="75269196-3c19-4658-8e5b-4d6cc1d35d9f" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="20" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e6d4e7e7-7d2a-4b7b-91fb-dfcf799ece8c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="13" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="14" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="17" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{d6cf10b6-6eee-4c8c-b097-7b28115a0c6e}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="e6d4e7e7-7d2a-4b7b-91fb-dfcf799ece8c">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e6d4e7e7-7d2a-4b7b-91fb-dfcf799ece8c" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="7f727d03-77e6-4ed8-b686-bfc5a8681394" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7f727d03-77e6-4ed8-b686-bfc5a8681394">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9078F667-C8A5-448C-849E-644883D74D2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7f727d03-77e6-4ed8-b686-bfc5a8681394"/>
+    <ds:schemaRef ds:uri="e6d4e7e7-7d2a-4b7b-91fb-dfcf799ece8c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BD91BBC-D327-4F2E-A4E0-98163EDE5D6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{956831E8-0B13-4045-83D1-1905F021DD5C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e6d4e7e7-7d2a-4b7b-91fb-dfcf799ece8c"/>
+    <ds:schemaRef ds:uri="7f727d03-77e6-4ed8-b686-bfc5a8681394"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111DEDALUSXXX/Regione_Sardegna/PSWEB_SISaR_RAS/20.14/accreditamento-checklist_PSWEB_SISaR_RAS_V8.1.3.xlsx
+++ b/GATEWAY/A1#111DEDALUSXXX/Regione_Sardegna/PSWEB_SISaR_RAS/20.14/accreditamento-checklist_PSWEB_SISaR_RAS_V8.1.3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ACCREDITAMENTO\it-fse-accreditamento\GATEWAY\A1#111DEDALUSXXX\Regione_Sardegna\PSWEB_SISaR_RAS\20.14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toluf\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14A2272-8A4C-42E3-B067-EC1D5D8798FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC758B6-0B2F-4290-B29A-DFE8D1C7842B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="345" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,8 +22,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$383</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="oXWj5iU3LtnvLpdhFqszSz/X91q3fG5U5zC5TJKtiGw="/>
     </ext>
@@ -4584,6 +4593,15 @@
     <t>subject_application_version: 20.14</t>
   </si>
   <si>
+    <t>2023-11-03T11:09:23Z</t>
+  </si>
+  <si>
+    <t>e72ea2d810a0ab2c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.200.4.4.529091b0ed824e08be5d82e4b438bdf98c53c463382d335cbf038f185f5dd9ba.f96c7e53af^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t>2023-10-11T22:57:15Z</t>
   </si>
   <si>
@@ -4890,31 +4908,22 @@
     <t>2.16.840.1.113883.2.9.2.200.4.4.d5809fea07b5089ca11bc401066533b5fc7493697ce980565d394420a194dac5.fb05f4c013^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2023-11-28T10:22:10Z</t>
-  </si>
-  <si>
-    <t>21805023c3289097</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.7264e468d7adad95d92027b5958f617448f97b4882d46c97c98308e4e57af9b4.1f8afe2e8e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-28T10:29:26Z</t>
-  </si>
-  <si>
-    <t>d9d488bd7166e3c6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.cac285cd993e6989a5266be26719f049a72678a9621262888b4ad7f7b1ef1c64.d3cd5091da^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-24T17:11:58Z</t>
-  </si>
-  <si>
-    <t>f2f1268e638e8cac</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.7efc9af8444ee42ea570d6d4f70994a10de15e8d79b8c704230c9fd64f58ce03.2f7fe4b5a3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>18b0b58942239b59</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.200.4.4.ec9fbeb1b4679f4a64a2668c91666c8d9221723fff10dc2dd5c30bf46b8e222b.4b801c58c9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-12-01T09:15:29Z</t>
+  </si>
+  <si>
+    <t>2023-12-01T09:13:46Z</t>
+  </si>
+  <si>
+    <t>7fb9afe1a07a4927</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.200.4.4.9aaf097d7a95772b138a8e180dd096091a7b9f7727524cf1a7f5191606e450f0.1ff8ee5532^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -7836,10 +7845,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -8825,16 +8834,16 @@
         <v>95</v>
       </c>
       <c r="F31" s="20">
-        <v>45254</v>
+        <v>45233</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>960</v>
+        <v>852</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>961</v>
+        <v>853</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>962</v>
+        <v>854</v>
       </c>
       <c r="J31" s="22" t="s">
         <v>139</v>
@@ -8872,13 +8881,13 @@
         <v>45258</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="J32" s="22" t="s">
         <v>139</v>
@@ -8913,16 +8922,16 @@
         <v>99</v>
       </c>
       <c r="F33" s="20">
-        <v>45258</v>
+        <v>45261</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="J33" s="22" t="s">
         <v>139</v>
@@ -8957,16 +8966,16 @@
         <v>101</v>
       </c>
       <c r="F34" s="20">
-        <v>45258</v>
+        <v>45261</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="J34" s="22" t="s">
         <v>139</v>
@@ -9242,13 +9251,13 @@
         <v>45236</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="I42" s="21" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="J42" s="22" t="s">
         <v>139</v>
@@ -9265,7 +9274,7 @@
         <v>139</v>
       </c>
       <c r="P42" s="36" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="Q42" s="22"/>
       <c r="R42" s="23"/>
@@ -9532,13 +9541,13 @@
         <v>45236</v>
       </c>
       <c r="G50" s="21" t="s">
+        <v>861</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>862</v>
+      </c>
+      <c r="I50" s="21" t="s">
         <v>858</v>
-      </c>
-      <c r="H50" s="21" t="s">
-        <v>859</v>
-      </c>
-      <c r="I50" s="21" t="s">
-        <v>855</v>
       </c>
       <c r="J50" s="22" t="s">
         <v>139</v>
@@ -9555,7 +9564,7 @@
         <v>139</v>
       </c>
       <c r="P50" s="36" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="Q50" s="22"/>
       <c r="R50" s="23"/>
@@ -9597,7 +9606,7 @@
         <v>139</v>
       </c>
       <c r="P51" s="36" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="Q51" s="22"/>
       <c r="R51" s="23" t="s">
@@ -9861,7 +9870,7 @@
         <v>139</v>
       </c>
       <c r="P58" s="36" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="Q58" s="22"/>
       <c r="R58" s="23" t="s">
@@ -12272,13 +12281,13 @@
         <v>45236</v>
       </c>
       <c r="G129" s="21" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="H129" s="21" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="I129" s="21" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="J129" s="22" t="s">
         <v>139</v>
@@ -12295,7 +12304,7 @@
         <v>139</v>
       </c>
       <c r="P129" s="22" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="Q129" s="22"/>
       <c r="R129" s="23"/>
@@ -12324,13 +12333,13 @@
         <v>45236</v>
       </c>
       <c r="G130" s="21" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="H130" s="21" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="I130" s="21" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="J130" s="22" t="s">
         <v>139</v>
@@ -12343,13 +12352,13 @@
         <v>139</v>
       </c>
       <c r="N130" s="22" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="O130" s="22" t="s">
         <v>848</v>
       </c>
       <c r="P130" s="22" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="Q130" s="22"/>
       <c r="R130" s="23"/>
@@ -12378,13 +12387,13 @@
         <v>45236</v>
       </c>
       <c r="G131" s="21" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="H131" s="21" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="I131" s="21" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="J131" s="22" t="s">
         <v>139</v>
@@ -12401,7 +12410,7 @@
         <v>139</v>
       </c>
       <c r="P131" s="22" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="Q131" s="22"/>
       <c r="R131" s="23"/>
@@ -12430,13 +12439,13 @@
         <v>45236</v>
       </c>
       <c r="G132" s="21" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="H132" s="21" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="I132" s="21" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="J132" s="22" t="s">
         <v>139</v>
@@ -12449,13 +12458,13 @@
         <v>139</v>
       </c>
       <c r="N132" s="22" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="O132" s="22" t="s">
         <v>848</v>
       </c>
       <c r="P132" s="22" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="Q132" s="22"/>
       <c r="R132" s="23"/>
@@ -12484,13 +12493,13 @@
         <v>45236</v>
       </c>
       <c r="G133" s="21" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="H133" s="21" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="I133" s="21" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="J133" s="22" t="s">
         <v>139</v>
@@ -12503,13 +12512,13 @@
         <v>139</v>
       </c>
       <c r="N133" s="22" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="O133" s="22" t="s">
         <v>848</v>
       </c>
       <c r="P133" s="22" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="Q133" s="22"/>
       <c r="R133" s="23"/>
@@ -12538,13 +12547,13 @@
         <v>45236</v>
       </c>
       <c r="G134" s="21" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="H134" s="21" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="I134" s="21" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="J134" s="22" t="s">
         <v>139</v>
@@ -12561,7 +12570,7 @@
         <v>848</v>
       </c>
       <c r="P134" s="22" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="Q134" s="22"/>
       <c r="R134" s="23"/>
@@ -12590,13 +12599,13 @@
         <v>45237</v>
       </c>
       <c r="G135" s="21" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="H135" s="21" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="I135" s="21" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="J135" s="22" t="s">
         <v>139</v>
@@ -12609,13 +12618,13 @@
         <v>139</v>
       </c>
       <c r="N135" s="22" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="O135" s="22" t="s">
         <v>848</v>
       </c>
       <c r="P135" s="22" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="Q135" s="22"/>
       <c r="R135" s="23"/>
@@ -12644,13 +12653,13 @@
         <v>45237</v>
       </c>
       <c r="G136" s="21" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="H136" s="21" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="I136" s="21" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="J136" s="22" t="s">
         <v>139</v>
@@ -12667,7 +12676,7 @@
         <v>848</v>
       </c>
       <c r="P136" s="22" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="Q136" s="22"/>
       <c r="R136" s="23"/>
@@ -12696,13 +12705,13 @@
         <v>45237</v>
       </c>
       <c r="G137" s="21" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="H137" s="21" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="I137" s="21" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="J137" s="22" t="s">
         <v>139</v>
@@ -12715,13 +12724,13 @@
         <v>139</v>
       </c>
       <c r="N137" s="22" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="O137" s="22" t="s">
         <v>848</v>
       </c>
       <c r="P137" s="22" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="Q137" s="22"/>
       <c r="R137" s="23"/>
@@ -12750,13 +12759,13 @@
         <v>45237</v>
       </c>
       <c r="G138" s="21" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="H138" s="21" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="I138" s="21" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="J138" s="22" t="s">
         <v>139</v>
@@ -12769,13 +12778,13 @@
         <v>139</v>
       </c>
       <c r="N138" s="22" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="O138" s="22" t="s">
         <v>848</v>
       </c>
       <c r="P138" s="22" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="Q138" s="22"/>
       <c r="R138" s="23"/>
@@ -12804,13 +12813,13 @@
         <v>45237</v>
       </c>
       <c r="G139" s="21" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="H139" s="21" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="I139" s="21" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="J139" s="22" t="s">
         <v>139</v>
@@ -12823,13 +12832,13 @@
         <v>139</v>
       </c>
       <c r="N139" s="22" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="O139" s="22" t="s">
         <v>848</v>
       </c>
       <c r="P139" s="22" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="Q139" s="22"/>
       <c r="R139" s="23"/>
@@ -12858,13 +12867,13 @@
         <v>45237</v>
       </c>
       <c r="G140" s="21" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="H140" s="21" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="I140" s="21" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="J140" s="22" t="s">
         <v>139</v>
@@ -12877,13 +12886,13 @@
         <v>139</v>
       </c>
       <c r="N140" s="22" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="O140" s="22" t="s">
         <v>848</v>
       </c>
       <c r="P140" s="22" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="Q140" s="22"/>
       <c r="R140" s="23"/>
@@ -12912,13 +12921,13 @@
         <v>45237</v>
       </c>
       <c r="G141" s="21" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="H141" s="21" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="I141" s="21" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="J141" s="22" t="s">
         <v>139</v>
@@ -12935,7 +12944,7 @@
         <v>139</v>
       </c>
       <c r="P141" s="36" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="Q141" s="22"/>
       <c r="R141" s="23"/>
@@ -12964,13 +12973,13 @@
         <v>45237</v>
       </c>
       <c r="G142" s="21" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="H142" s="21" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="I142" s="21" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="J142" s="22" t="s">
         <v>139</v>
@@ -12987,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="P142" s="36" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="Q142" s="22"/>
       <c r="R142" s="23"/>
@@ -13016,13 +13025,13 @@
         <v>45237</v>
       </c>
       <c r="G143" s="21" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="H143" s="21" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="I143" s="21" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="J143" s="22" t="s">
         <v>139</v>
@@ -13039,7 +13048,7 @@
         <v>139</v>
       </c>
       <c r="P143" s="36" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="Q143" s="22"/>
       <c r="R143" s="23"/>
@@ -13068,13 +13077,13 @@
         <v>45237</v>
       </c>
       <c r="G144" s="21" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="H144" s="21" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="I144" s="21" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="J144" s="22" t="s">
         <v>139</v>
@@ -13087,13 +13096,13 @@
         <v>139</v>
       </c>
       <c r="N144" s="22" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="O144" s="22" t="s">
         <v>848</v>
       </c>
       <c r="P144" s="22" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="Q144" s="22"/>
       <c r="R144" s="23"/>
@@ -13122,13 +13131,13 @@
         <v>45237</v>
       </c>
       <c r="G145" s="21" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="H145" s="21" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="I145" s="21" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="J145" s="22" t="s">
         <v>139</v>
@@ -13145,7 +13154,7 @@
         <v>139</v>
       </c>
       <c r="P145" s="36" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="Q145" s="22"/>
       <c r="R145" s="23"/>
@@ -13174,13 +13183,13 @@
         <v>45237</v>
       </c>
       <c r="G146" s="21" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="H146" s="21" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="I146" s="21" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="J146" s="22" t="s">
         <v>139</v>
@@ -13197,7 +13206,7 @@
         <v>848</v>
       </c>
       <c r="P146" s="22" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="Q146" s="22"/>
       <c r="R146" s="23"/>
@@ -13226,13 +13235,13 @@
         <v>45237</v>
       </c>
       <c r="G147" s="21" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="H147" s="21" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="I147" s="21" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="J147" s="22" t="s">
         <v>139</v>
@@ -13245,13 +13254,13 @@
         <v>139</v>
       </c>
       <c r="N147" s="22" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="O147" s="22" t="s">
         <v>848</v>
       </c>
       <c r="P147" s="22" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="Q147" s="22"/>
       <c r="R147" s="23"/>
@@ -13280,13 +13289,13 @@
         <v>45237</v>
       </c>
       <c r="G148" s="21" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="H148" s="21" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="I148" s="21" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="J148" s="22" t="s">
         <v>139</v>
@@ -13299,13 +13308,13 @@
         <v>139</v>
       </c>
       <c r="N148" s="22" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="O148" s="22" t="s">
         <v>848</v>
       </c>
       <c r="P148" s="22" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="Q148" s="22"/>
       <c r="R148" s="23"/>
@@ -13334,13 +13343,13 @@
         <v>45237</v>
       </c>
       <c r="G149" s="21" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="H149" s="21" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="I149" s="21" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="J149" s="22" t="s">
         <v>139</v>
@@ -13357,7 +13366,7 @@
         <v>848</v>
       </c>
       <c r="P149" s="22" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="Q149" s="22"/>
       <c r="R149" s="23"/>
@@ -13386,13 +13395,13 @@
         <v>45237</v>
       </c>
       <c r="G150" s="37" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="H150" s="21" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="I150" s="21" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="J150" s="22" t="s">
         <v>139</v>
@@ -13409,7 +13418,7 @@
         <v>848</v>
       </c>
       <c r="P150" s="22" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="Q150" s="22"/>
       <c r="R150" s="23"/>
@@ -13438,13 +13447,13 @@
         <v>45237</v>
       </c>
       <c r="G151" s="21" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="H151" s="21" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="I151" s="21" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="J151" s="22" t="s">
         <v>139</v>
@@ -13461,7 +13470,7 @@
         <v>848</v>
       </c>
       <c r="P151" s="22" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="Q151" s="22"/>
       <c r="R151" s="23"/>
@@ -13490,13 +13499,13 @@
         <v>45237</v>
       </c>
       <c r="G152" s="21" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="H152" s="21" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="I152" s="21" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="J152" s="22" t="s">
         <v>139</v>
@@ -13513,7 +13522,7 @@
         <v>848</v>
       </c>
       <c r="P152" s="22" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="Q152" s="22"/>
       <c r="R152" s="23"/>
@@ -13542,13 +13551,13 @@
         <v>45237</v>
       </c>
       <c r="G153" s="21" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="H153" s="21" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="I153" s="21" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="J153" s="22" t="s">
         <v>139</v>
@@ -13565,7 +13574,7 @@
         <v>139</v>
       </c>
       <c r="P153" s="36" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="Q153" s="22"/>
       <c r="R153" s="23"/>
@@ -21278,13 +21287,13 @@
         <v>45210</v>
       </c>
       <c r="G380" s="21" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="H380" s="21" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="I380" s="21" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="J380" s="22" t="s">
         <v>139</v>

--- a/GATEWAY/A1#111DEDALUSXXX/Regione_Sardegna/PSWEB_SISaR_RAS/20.14/accreditamento-checklist_PSWEB_SISaR_RAS_V8.1.3.xlsx
+++ b/GATEWAY/A1#111DEDALUSXXX/Regione_Sardegna/PSWEB_SISaR_RAS/20.14/accreditamento-checklist_PSWEB_SISaR_RAS_V8.1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toluf\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC758B6-0B2F-4290-B29A-DFE8D1C7842B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADE0E6D-1742-42AA-BF8B-C4CA9FE4D1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="345" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4593,15 +4593,6 @@
     <t>subject_application_version: 20.14</t>
   </si>
   <si>
-    <t>2023-11-03T11:09:23Z</t>
-  </si>
-  <si>
-    <t>e72ea2d810a0ab2c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.529091b0ed824e08be5d82e4b438bdf98c53c463382d335cbf038f185f5dd9ba.f96c7e53af^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2023-10-11T22:57:15Z</t>
   </si>
   <si>
@@ -4924,6 +4915,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.200.4.4.9aaf097d7a95772b138a8e180dd096091a7b9f7727524cf1a7f5191606e450f0.1ff8ee5532^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-12-04T08:11:16Z</t>
+  </si>
+  <si>
+    <t>e40852df55b52f0a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.200.4.4.2c36c41698790e016a38104d117919af6214040c11ac9d705cc21942884f2bab.6dc2ec66d2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -7845,10 +7845,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -8834,16 +8834,16 @@
         <v>95</v>
       </c>
       <c r="F31" s="20">
-        <v>45233</v>
+        <v>45264</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>852</v>
+        <v>960</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>853</v>
+        <v>961</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>854</v>
+        <v>962</v>
       </c>
       <c r="J31" s="22" t="s">
         <v>139</v>
@@ -8881,13 +8881,13 @@
         <v>45258</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="J32" s="22" t="s">
         <v>139</v>
@@ -8925,13 +8925,13 @@
         <v>45261</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="J33" s="22" t="s">
         <v>139</v>
@@ -8969,13 +8969,13 @@
         <v>45261</v>
       </c>
       <c r="G34" s="21" t="s">
+        <v>956</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>958</v>
+      </c>
+      <c r="I34" s="21" t="s">
         <v>959</v>
-      </c>
-      <c r="H34" s="21" t="s">
-        <v>961</v>
-      </c>
-      <c r="I34" s="21" t="s">
-        <v>962</v>
       </c>
       <c r="J34" s="22" t="s">
         <v>139</v>
@@ -9251,13 +9251,13 @@
         <v>45236</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="I42" s="21" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="J42" s="22" t="s">
         <v>139</v>
@@ -9274,7 +9274,7 @@
         <v>139</v>
       </c>
       <c r="P42" s="36" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="Q42" s="22"/>
       <c r="R42" s="23"/>
@@ -9541,13 +9541,13 @@
         <v>45236</v>
       </c>
       <c r="G50" s="21" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="I50" s="21" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="J50" s="22" t="s">
         <v>139</v>
@@ -9564,7 +9564,7 @@
         <v>139</v>
       </c>
       <c r="P50" s="36" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="Q50" s="22"/>
       <c r="R50" s="23"/>
@@ -9606,7 +9606,7 @@
         <v>139</v>
       </c>
       <c r="P51" s="36" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="Q51" s="22"/>
       <c r="R51" s="23" t="s">
@@ -9870,7 +9870,7 @@
         <v>139</v>
       </c>
       <c r="P58" s="36" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="Q58" s="22"/>
       <c r="R58" s="23" t="s">
@@ -12281,13 +12281,13 @@
         <v>45236</v>
       </c>
       <c r="G129" s="21" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="H129" s="21" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="I129" s="21" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="J129" s="22" t="s">
         <v>139</v>
@@ -12304,7 +12304,7 @@
         <v>139</v>
       </c>
       <c r="P129" s="22" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="Q129" s="22"/>
       <c r="R129" s="23"/>
@@ -12333,13 +12333,13 @@
         <v>45236</v>
       </c>
       <c r="G130" s="21" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="H130" s="21" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="I130" s="21" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="J130" s="22" t="s">
         <v>139</v>
@@ -12352,13 +12352,13 @@
         <v>139</v>
       </c>
       <c r="N130" s="22" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="O130" s="22" t="s">
         <v>848</v>
       </c>
       <c r="P130" s="22" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="Q130" s="22"/>
       <c r="R130" s="23"/>
@@ -12387,13 +12387,13 @@
         <v>45236</v>
       </c>
       <c r="G131" s="21" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="H131" s="21" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="I131" s="21" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="J131" s="22" t="s">
         <v>139</v>
@@ -12410,7 +12410,7 @@
         <v>139</v>
       </c>
       <c r="P131" s="22" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="Q131" s="22"/>
       <c r="R131" s="23"/>
@@ -12439,13 +12439,13 @@
         <v>45236</v>
       </c>
       <c r="G132" s="21" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="H132" s="21" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="I132" s="21" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="J132" s="22" t="s">
         <v>139</v>
@@ -12458,13 +12458,13 @@
         <v>139</v>
       </c>
       <c r="N132" s="22" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="O132" s="22" t="s">
         <v>848</v>
       </c>
       <c r="P132" s="22" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="Q132" s="22"/>
       <c r="R132" s="23"/>
@@ -12493,13 +12493,13 @@
         <v>45236</v>
       </c>
       <c r="G133" s="21" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="H133" s="21" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="I133" s="21" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J133" s="22" t="s">
         <v>139</v>
@@ -12512,13 +12512,13 @@
         <v>139</v>
       </c>
       <c r="N133" s="22" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="O133" s="22" t="s">
         <v>848</v>
       </c>
       <c r="P133" s="22" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="Q133" s="22"/>
       <c r="R133" s="23"/>
@@ -12547,13 +12547,13 @@
         <v>45236</v>
       </c>
       <c r="G134" s="21" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="H134" s="21" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="I134" s="21" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="J134" s="22" t="s">
         <v>139</v>
@@ -12570,7 +12570,7 @@
         <v>848</v>
       </c>
       <c r="P134" s="22" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="Q134" s="22"/>
       <c r="R134" s="23"/>
@@ -12599,13 +12599,13 @@
         <v>45237</v>
       </c>
       <c r="G135" s="21" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="H135" s="21" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="I135" s="21" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="J135" s="22" t="s">
         <v>139</v>
@@ -12618,13 +12618,13 @@
         <v>139</v>
       </c>
       <c r="N135" s="22" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="O135" s="22" t="s">
         <v>848</v>
       </c>
       <c r="P135" s="22" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="Q135" s="22"/>
       <c r="R135" s="23"/>
@@ -12653,13 +12653,13 @@
         <v>45237</v>
       </c>
       <c r="G136" s="21" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="H136" s="21" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="I136" s="21" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="J136" s="22" t="s">
         <v>139</v>
@@ -12676,7 +12676,7 @@
         <v>848</v>
       </c>
       <c r="P136" s="22" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="Q136" s="22"/>
       <c r="R136" s="23"/>
@@ -12705,13 +12705,13 @@
         <v>45237</v>
       </c>
       <c r="G137" s="21" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="H137" s="21" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="I137" s="21" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="J137" s="22" t="s">
         <v>139</v>
@@ -12724,13 +12724,13 @@
         <v>139</v>
       </c>
       <c r="N137" s="22" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="O137" s="22" t="s">
         <v>848</v>
       </c>
       <c r="P137" s="22" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="Q137" s="22"/>
       <c r="R137" s="23"/>
@@ -12759,13 +12759,13 @@
         <v>45237</v>
       </c>
       <c r="G138" s="21" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="H138" s="21" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="I138" s="21" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="J138" s="22" t="s">
         <v>139</v>
@@ -12778,13 +12778,13 @@
         <v>139</v>
       </c>
       <c r="N138" s="22" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="O138" s="22" t="s">
         <v>848</v>
       </c>
       <c r="P138" s="22" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="Q138" s="22"/>
       <c r="R138" s="23"/>
@@ -12813,13 +12813,13 @@
         <v>45237</v>
       </c>
       <c r="G139" s="21" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="H139" s="21" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="I139" s="21" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="J139" s="22" t="s">
         <v>139</v>
@@ -12832,13 +12832,13 @@
         <v>139</v>
       </c>
       <c r="N139" s="22" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="O139" s="22" t="s">
         <v>848</v>
       </c>
       <c r="P139" s="22" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="Q139" s="22"/>
       <c r="R139" s="23"/>
@@ -12867,13 +12867,13 @@
         <v>45237</v>
       </c>
       <c r="G140" s="21" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="H140" s="21" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="I140" s="21" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="J140" s="22" t="s">
         <v>139</v>
@@ -12886,13 +12886,13 @@
         <v>139</v>
       </c>
       <c r="N140" s="22" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="O140" s="22" t="s">
         <v>848</v>
       </c>
       <c r="P140" s="22" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="Q140" s="22"/>
       <c r="R140" s="23"/>
@@ -12921,13 +12921,13 @@
         <v>45237</v>
       </c>
       <c r="G141" s="21" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="H141" s="21" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="I141" s="21" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="J141" s="22" t="s">
         <v>139</v>
@@ -12944,7 +12944,7 @@
         <v>139</v>
       </c>
       <c r="P141" s="36" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="Q141" s="22"/>
       <c r="R141" s="23"/>
@@ -12973,13 +12973,13 @@
         <v>45237</v>
       </c>
       <c r="G142" s="21" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="H142" s="21" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="I142" s="21" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="J142" s="22" t="s">
         <v>139</v>
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="P142" s="36" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="Q142" s="22"/>
       <c r="R142" s="23"/>
@@ -13025,13 +13025,13 @@
         <v>45237</v>
       </c>
       <c r="G143" s="21" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="H143" s="21" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="I143" s="21" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="J143" s="22" t="s">
         <v>139</v>
@@ -13048,7 +13048,7 @@
         <v>139</v>
       </c>
       <c r="P143" s="36" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="Q143" s="22"/>
       <c r="R143" s="23"/>
@@ -13077,13 +13077,13 @@
         <v>45237</v>
       </c>
       <c r="G144" s="21" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="H144" s="21" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="I144" s="21" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="J144" s="22" t="s">
         <v>139</v>
@@ -13096,13 +13096,13 @@
         <v>139</v>
       </c>
       <c r="N144" s="22" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="O144" s="22" t="s">
         <v>848</v>
       </c>
       <c r="P144" s="22" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="Q144" s="22"/>
       <c r="R144" s="23"/>
@@ -13131,13 +13131,13 @@
         <v>45237</v>
       </c>
       <c r="G145" s="21" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="H145" s="21" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="I145" s="21" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="J145" s="22" t="s">
         <v>139</v>
@@ -13154,7 +13154,7 @@
         <v>139</v>
       </c>
       <c r="P145" s="36" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="Q145" s="22"/>
       <c r="R145" s="23"/>
@@ -13183,13 +13183,13 @@
         <v>45237</v>
       </c>
       <c r="G146" s="21" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="H146" s="21" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="I146" s="21" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="J146" s="22" t="s">
         <v>139</v>
@@ -13206,7 +13206,7 @@
         <v>848</v>
       </c>
       <c r="P146" s="22" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="Q146" s="22"/>
       <c r="R146" s="23"/>
@@ -13235,13 +13235,13 @@
         <v>45237</v>
       </c>
       <c r="G147" s="21" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="H147" s="21" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="I147" s="21" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="J147" s="22" t="s">
         <v>139</v>
@@ -13254,13 +13254,13 @@
         <v>139</v>
       </c>
       <c r="N147" s="22" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="O147" s="22" t="s">
         <v>848</v>
       </c>
       <c r="P147" s="22" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="Q147" s="22"/>
       <c r="R147" s="23"/>
@@ -13289,13 +13289,13 @@
         <v>45237</v>
       </c>
       <c r="G148" s="21" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="H148" s="21" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="I148" s="21" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="J148" s="22" t="s">
         <v>139</v>
@@ -13308,13 +13308,13 @@
         <v>139</v>
       </c>
       <c r="N148" s="22" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="O148" s="22" t="s">
         <v>848</v>
       </c>
       <c r="P148" s="22" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="Q148" s="22"/>
       <c r="R148" s="23"/>
@@ -13343,13 +13343,13 @@
         <v>45237</v>
       </c>
       <c r="G149" s="21" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="H149" s="21" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="I149" s="21" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="J149" s="22" t="s">
         <v>139</v>
@@ -13366,7 +13366,7 @@
         <v>848</v>
       </c>
       <c r="P149" s="22" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="Q149" s="22"/>
       <c r="R149" s="23"/>
@@ -13395,13 +13395,13 @@
         <v>45237</v>
       </c>
       <c r="G150" s="37" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="H150" s="21" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="I150" s="21" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="J150" s="22" t="s">
         <v>139</v>
@@ -13418,7 +13418,7 @@
         <v>848</v>
       </c>
       <c r="P150" s="22" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="Q150" s="22"/>
       <c r="R150" s="23"/>
@@ -13447,13 +13447,13 @@
         <v>45237</v>
       </c>
       <c r="G151" s="21" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="H151" s="21" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="I151" s="21" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="J151" s="22" t="s">
         <v>139</v>
@@ -13470,7 +13470,7 @@
         <v>848</v>
       </c>
       <c r="P151" s="22" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="Q151" s="22"/>
       <c r="R151" s="23"/>
@@ -13499,13 +13499,13 @@
         <v>45237</v>
       </c>
       <c r="G152" s="21" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="H152" s="21" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="I152" s="21" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="J152" s="22" t="s">
         <v>139</v>
@@ -13522,7 +13522,7 @@
         <v>848</v>
       </c>
       <c r="P152" s="22" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="Q152" s="22"/>
       <c r="R152" s="23"/>
@@ -13551,13 +13551,13 @@
         <v>45237</v>
       </c>
       <c r="G153" s="21" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="H153" s="21" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="I153" s="21" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="J153" s="22" t="s">
         <v>139</v>
@@ -13574,7 +13574,7 @@
         <v>139</v>
       </c>
       <c r="P153" s="36" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="Q153" s="22"/>
       <c r="R153" s="23"/>
@@ -21287,13 +21287,13 @@
         <v>45210</v>
       </c>
       <c r="G380" s="21" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="H380" s="21" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="I380" s="21" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="J380" s="22" t="s">
         <v>139</v>
@@ -28832,6 +28832,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e6d4e7e7-7d2a-4b7b-91fb-dfcf799ece8c" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="7f727d03-77e6-4ed8-b686-bfc5a8681394" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7f727d03-77e6-4ed8-b686-bfc5a8681394">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004B0B21D7C87FDA4AB48A2A5274B76D59" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="bcd25b6d692e609784cef5e62ac1ef9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f727d03-77e6-4ed8-b686-bfc5a8681394" xmlns:ns3="e6d4e7e7-7d2a-4b7b-91fb-dfcf799ece8c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6dd1e099223e11c426947ce331df957f" ns2:_="" ns3:_="">
     <xsd:import namespace="7f727d03-77e6-4ed8-b686-bfc5a8681394"/>
@@ -29066,28 +29087,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{956831E8-0B13-4045-83D1-1905F021DD5C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e6d4e7e7-7d2a-4b7b-91fb-dfcf799ece8c"/>
+    <ds:schemaRef ds:uri="7f727d03-77e6-4ed8-b686-bfc5a8681394"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e6d4e7e7-7d2a-4b7b-91fb-dfcf799ece8c" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="7f727d03-77e6-4ed8-b686-bfc5a8681394" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7f727d03-77e6-4ed8-b686-bfc5a8681394">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BD91BBC-D327-4F2E-A4E0-98163EDE5D6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9078F667-C8A5-448C-849E-644883D74D2A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29104,23 +29123,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BD91BBC-D327-4F2E-A4E0-98163EDE5D6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{956831E8-0B13-4045-83D1-1905F021DD5C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e6d4e7e7-7d2a-4b7b-91fb-dfcf799ece8c"/>
-    <ds:schemaRef ds:uri="7f727d03-77e6-4ed8-b686-bfc5a8681394"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>